--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_22_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_22_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95209.65838082711</v>
+        <v>17216707.45005637</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95209.65838082711</v>
+        <v>17216707.45005637</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6941.399039629157</v>
+        <v>779238.8018598073</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6941.399039629157</v>
+        <v>779238.8018598073</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189225191.790017</v>
+        <v>48671075.77442361</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10158.50700777041</v>
+        <v>1157637.783995002</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19112.5569490911</v>
+        <v>2130926.614731289</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28066.60689041177</v>
+        <v>3104215.445467579</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37212.52381916369</v>
+        <v>4089535.439944815</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46300.29132116705</v>
+        <v>5063992.821853369</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>54891.48124214664</v>
+        <v>6016600.790196877</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>63688.7977061927</v>
+        <v>6991058.172105426</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>72486.11417023877</v>
+        <v>7965515.554013975</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>81172.1149169515</v>
+        <v>8881295.13020608</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>89636.4959870747</v>
+        <v>9849870.473995147</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>97251.64285933954</v>
+        <v>10680407.53246543</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>105593.1866061957</v>
+        <v>11648391.83584862</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>113950.6251238272</v>
+        <v>12619539.1986161</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>122798.0381926105</v>
+        <v>13547902.49906337</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>132111.1945881307</v>
+        <v>14421052.92398134</v>
       </c>
     </row>
   </sheetData>
